--- a/optimization model/result/heating_costs_subsidy.xlsx
+++ b/optimization model/result/heating_costs_subsidy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="17">
   <si>
     <t>model</t>
   </si>
@@ -59,13 +59,22 @@
     <t>Heating costs subsidy</t>
   </si>
   <si>
-    <t>Low CO2 price</t>
-  </si>
-  <si>
     <t>EUR / m**2</t>
   </si>
   <si>
     <t>Rent charge adjustment</t>
+  </si>
+  <si>
+    <t>DT (DH)</t>
+  </si>
+  <si>
+    <t>LD (DH)</t>
+  </si>
+  <si>
+    <t>LD (HP)</t>
+  </si>
+  <si>
+    <t>GD (DH)</t>
   </si>
 </sst>
 </file>
@@ -143,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -151,6 +160,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -432,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -488,7 +499,7 @@
         <v>2025</v>
       </c>
       <c r="G2" s="1">
-        <v>4.7830626450116008E-2</v>
+        <v>0.16825000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -496,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -511,7 +522,7 @@
         <v>2026</v>
       </c>
       <c r="G3" s="1">
-        <v>4.7830626450116008E-2</v>
+        <v>0.17041000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -519,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -534,7 +545,7 @@
         <v>2027</v>
       </c>
       <c r="G4" s="1">
-        <v>8.5533642691415307E-2</v>
+        <v>0.17862</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -542,7 +553,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -557,7 +568,7 @@
         <v>2028</v>
       </c>
       <c r="G5" s="1">
-        <v>8.5533642691415307E-2</v>
+        <v>0.18101999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -565,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -580,7 +591,7 @@
         <v>2029</v>
       </c>
       <c r="G6" s="1">
-        <v>8.5533642691415307E-2</v>
+        <v>2.9199999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -588,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -603,7 +614,7 @@
         <v>2030</v>
       </c>
       <c r="G7" s="1">
-        <v>8.5962877030162407E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -611,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -626,7 +637,7 @@
         <v>2031</v>
       </c>
       <c r="G8" s="1">
-        <v>8.5962877030162407E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -634,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -649,7 +660,7 @@
         <v>2032</v>
       </c>
       <c r="G9" s="1">
-        <v>8.5962877030162407E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -657,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -672,7 +683,7 @@
         <v>2033</v>
       </c>
       <c r="G10" s="1">
-        <v>8.5962877030162407E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -680,7 +691,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -695,7 +706,7 @@
         <v>2034</v>
       </c>
       <c r="G11" s="1">
-        <v>8.5962877030162407E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -703,7 +714,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -718,7 +729,7 @@
         <v>2035</v>
       </c>
       <c r="G12" s="1">
-        <v>8.6403712296983751E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -726,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -741,7 +752,7 @@
         <v>2036</v>
       </c>
       <c r="G13" s="1">
-        <v>8.6403712296983751E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -749,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
@@ -764,7 +775,7 @@
         <v>2037</v>
       </c>
       <c r="G14" s="1">
-        <v>8.6403712296983751E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -772,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -787,7 +798,7 @@
         <v>2038</v>
       </c>
       <c r="G15" s="1">
-        <v>8.6403712296983751E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -795,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -810,7 +821,7 @@
         <v>2039</v>
       </c>
       <c r="G16" s="1">
-        <v>8.6403712296983751E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -818,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -833,7 +844,7 @@
         <v>2040</v>
       </c>
       <c r="G17" s="1">
-        <v>8.6832946635730865E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -841,16 +852,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3">
         <v>2025</v>
@@ -864,16 +875,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="3">
         <v>2026</v>
@@ -887,22 +898,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="3">
         <v>2027</v>
       </c>
       <c r="G20" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -910,22 +921,22 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="3">
         <v>2028</v>
       </c>
       <c r="G21" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -933,22 +944,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="3">
         <v>2029</v>
       </c>
       <c r="G22" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -956,22 +967,22 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="3">
         <v>2030</v>
       </c>
       <c r="G23" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -979,22 +990,22 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="3">
         <v>2031</v>
       </c>
       <c r="G24" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1002,22 +1013,22 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="3">
         <v>2032</v>
       </c>
       <c r="G25" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1025,22 +1036,22 @@
         <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="3">
         <v>2033</v>
       </c>
       <c r="G26" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1048,22 +1059,22 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="3">
         <v>2034</v>
       </c>
       <c r="G27" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1071,22 +1082,22 @@
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="3">
         <v>2035</v>
       </c>
       <c r="G28" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1094,22 +1105,22 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="3">
         <v>2036</v>
       </c>
       <c r="G29" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1117,22 +1128,22 @@
         <v>7</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="3">
         <v>2037</v>
       </c>
       <c r="G30" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1140,22 +1151,22 @@
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="3">
         <v>2038</v>
       </c>
       <c r="G31" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1163,22 +1174,22 @@
         <v>7</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="3">
         <v>2039</v>
       </c>
       <c r="G32" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1186,22 +1197,2230 @@
         <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="3">
         <v>2040</v>
       </c>
       <c r="G33" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.20175999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2026</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.20175999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2027</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.20838999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2028</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.20838999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2029</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.20838999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.20893999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2031</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1.873E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2032</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2033</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2034</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2035</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2036</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2037</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2038</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2039</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2026</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2027</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2028</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2029</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2031</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2032</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2033</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2034</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2035</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2036</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2037</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2038</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2039</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.14488999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2026</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.14551</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2027</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.14626</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2028</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.14712</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2029</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1.967E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2031</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="3">
+        <v>2032</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2033</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2034</v>
+      </c>
+      <c r="G75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2035</v>
+      </c>
+      <c r="G76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2036</v>
+      </c>
+      <c r="G77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2037</v>
+      </c>
+      <c r="G78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2038</v>
+      </c>
+      <c r="G79" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2039</v>
+      </c>
+      <c r="G80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G81" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G82" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2026</v>
+      </c>
+      <c r="G83" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="3">
+        <v>2027</v>
+      </c>
+      <c r="G84" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2028</v>
+      </c>
+      <c r="G85" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="3">
+        <v>2029</v>
+      </c>
+      <c r="G86" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G87" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="3">
+        <v>2031</v>
+      </c>
+      <c r="G88" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2032</v>
+      </c>
+      <c r="G89" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="3">
+        <v>2033</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="3">
+        <v>2034</v>
+      </c>
+      <c r="G91" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="3">
+        <v>2035</v>
+      </c>
+      <c r="G92" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="3">
+        <v>2036</v>
+      </c>
+      <c r="G93" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2037</v>
+      </c>
+      <c r="G94" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="3">
+        <v>2038</v>
+      </c>
+      <c r="G95" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2039</v>
+      </c>
+      <c r="G96" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G97" s="6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G98" s="6">
+        <v>0.16550999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="3">
+        <v>2026</v>
+      </c>
+      <c r="G99" s="6">
+        <v>0.16727</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2027</v>
+      </c>
+      <c r="G100" s="6">
+        <v>0.16930000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2028</v>
+      </c>
+      <c r="G101" s="6">
+        <v>0.16508</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="3">
+        <v>2029</v>
+      </c>
+      <c r="G102" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G103" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="3">
+        <v>2031</v>
+      </c>
+      <c r="G104" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="3">
+        <v>2032</v>
+      </c>
+      <c r="G105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="3">
+        <v>2033</v>
+      </c>
+      <c r="G106" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="3">
+        <v>2034</v>
+      </c>
+      <c r="G107" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="3">
+        <v>2035</v>
+      </c>
+      <c r="G108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="3">
+        <v>2036</v>
+      </c>
+      <c r="G109" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="3">
+        <v>2037</v>
+      </c>
+      <c r="G110" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="3">
+        <v>2038</v>
+      </c>
+      <c r="G111" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="3">
+        <v>2039</v>
+      </c>
+      <c r="G112" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G114" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="3">
+        <v>2026</v>
+      </c>
+      <c r="G115" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="3">
+        <v>2027</v>
+      </c>
+      <c r="G116" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="3">
+        <v>2028</v>
+      </c>
+      <c r="G117" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="3">
+        <v>2029</v>
+      </c>
+      <c r="G118" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G119" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="3">
+        <v>2031</v>
+      </c>
+      <c r="G120" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="3">
+        <v>2032</v>
+      </c>
+      <c r="G121" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="3">
+        <v>2033</v>
+      </c>
+      <c r="G122" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="3">
+        <v>2034</v>
+      </c>
+      <c r="G123" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="3">
+        <v>2035</v>
+      </c>
+      <c r="G124" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="3">
+        <v>2036</v>
+      </c>
+      <c r="G125" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="3">
+        <v>2037</v>
+      </c>
+      <c r="G126" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="3">
+        <v>2038</v>
+      </c>
+      <c r="G127" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="3">
+        <v>2039</v>
+      </c>
+      <c r="G128" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G129" s="6">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
